--- a/iocBoot/ioc13idd_linux/Industry Pack wiring.xlsx
+++ b/iocBoot/ioc13idd_linux/Industry Pack wiring.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\epics\support\CARS\iocBoot\ioc13idd_linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F0F621-C12F-4061-B7BD-7E5481CFD78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="8865"/>
+    <workbookView xWindow="1110" yWindow="855" windowWidth="27570" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="138">
   <si>
     <t>Industry Pack Wiring in 13-ID-D</t>
   </si>
@@ -35,21 +47,12 @@
     <t>Patch panel</t>
   </si>
   <si>
-    <t>DAC1-5</t>
-  </si>
-  <si>
     <t>B06</t>
   </si>
   <si>
-    <t>DAC1-6</t>
-  </si>
-  <si>
     <t>B07</t>
   </si>
   <si>
-    <t>DAC1-7</t>
-  </si>
-  <si>
     <t>LVP furnace control (not used, run by LVP E-1608)</t>
   </si>
   <si>
@@ -86,27 +89,12 @@
     <t>LVP heater?</t>
   </si>
   <si>
-    <t>DAC2-1</t>
-  </si>
-  <si>
-    <t>DAC2-2</t>
-  </si>
-  <si>
     <t>DB A02</t>
   </si>
   <si>
     <t>Goes into DB 9.  This cable labeled DAC1</t>
   </si>
   <si>
-    <t>DAC2-3</t>
-  </si>
-  <si>
-    <t>DAC2-4</t>
-  </si>
-  <si>
-    <t>DAC2-5</t>
-  </si>
-  <si>
     <t>A01</t>
   </si>
   <si>
@@ -119,9 +107,6 @@
     <t>Temperature control with 33V/33A power supply</t>
   </si>
   <si>
-    <t>DAC2-7</t>
-  </si>
-  <si>
     <t>A03</t>
   </si>
   <si>
@@ -137,111 +122,63 @@
     <t>Cable labeled AL A or IL B</t>
   </si>
   <si>
-    <t>UNIDIG1-1</t>
-  </si>
-  <si>
     <t>B12</t>
   </si>
   <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>UNIDIG1-2</t>
-  </si>
-  <si>
     <t>A07</t>
   </si>
   <si>
     <t>DAC control</t>
   </si>
   <si>
-    <t>UNIDIG1-3</t>
-  </si>
-  <si>
     <t>A11</t>
   </si>
   <si>
     <t>NC</t>
   </si>
   <si>
-    <t>UNIDIG1-5</t>
-  </si>
-  <si>
     <t>A06</t>
   </si>
   <si>
     <t>DAC readback</t>
   </si>
   <si>
-    <t>UNIDIG1-6</t>
-  </si>
-  <si>
     <t>A04</t>
   </si>
   <si>
-    <t>UNIDIG1-21</t>
-  </si>
-  <si>
     <t>Goes into DB 9.  This cable labeled Unidig1</t>
   </si>
   <si>
-    <t>UNIDIG1-23</t>
-  </si>
-  <si>
     <t>Goes into DB 9.  This cable labeled Unidig2</t>
   </si>
   <si>
-    <t>UNIDIG1-15</t>
-  </si>
-  <si>
     <t>B01</t>
   </si>
   <si>
-    <t>UNIDIG1-7</t>
-  </si>
-  <si>
     <t>XIA DB9</t>
   </si>
   <si>
     <t>Cable labeled Output 02</t>
   </si>
   <si>
-    <t>UNIDIG1-8</t>
-  </si>
-  <si>
     <t>Cable labeled Input 02</t>
   </si>
   <si>
-    <t>UNIDIG1-9</t>
-  </si>
-  <si>
-    <t>UNIDIG1-10</t>
-  </si>
-  <si>
-    <t>UNIDIG1-11</t>
-  </si>
-  <si>
     <t>Cable labeled Output 01</t>
   </si>
   <si>
     <t>Cable labeled Input 01</t>
   </si>
   <si>
-    <t>UNIDIG1-12</t>
-  </si>
-  <si>
     <t>Cable labeled Output 04</t>
   </si>
   <si>
     <t>Cable labeled Input 04   Cabled TEE to C01</t>
   </si>
   <si>
-    <t>UNIDIG1-13</t>
-  </si>
-  <si>
-    <t>UNIDIG1-14</t>
-  </si>
-  <si>
     <t>Cable labeled Output 03</t>
   </si>
   <si>
@@ -303,12 +240,222 @@
   </si>
   <si>
     <t>C02</t>
+  </si>
+  <si>
+    <t>MeasComp</t>
+  </si>
+  <si>
+    <t>USBCTR:Bo1</t>
+  </si>
+  <si>
+    <t>USBCTR:Bo2</t>
+  </si>
+  <si>
+    <t>USBCTR:Bo3</t>
+  </si>
+  <si>
+    <t>USBCTR:Bo4</t>
+  </si>
+  <si>
+    <t>USBCTR:Bi5</t>
+  </si>
+  <si>
+    <t>USBCTR:Bi6</t>
+  </si>
+  <si>
+    <t>USBCTR:Bi7</t>
+  </si>
+  <si>
+    <t>USBCTR:Bi8</t>
+  </si>
+  <si>
+    <t>USB3104:Bo1</t>
+  </si>
+  <si>
+    <t>USB3104:Ao1</t>
+  </si>
+  <si>
+    <t>USB3104:Bo2</t>
+  </si>
+  <si>
+    <t>USB3104:Bo3</t>
+  </si>
+  <si>
+    <t>USB3104:Bo5</t>
+  </si>
+  <si>
+    <t>USB3104:Bo6</t>
+  </si>
+  <si>
+    <t>USB3104:Bo4</t>
+  </si>
+  <si>
+    <t>USB3104:Ao2</t>
+  </si>
+  <si>
+    <t>USB3104:Ao5</t>
+  </si>
+  <si>
+    <t>USB3104:Ao3</t>
+  </si>
+  <si>
+    <t>USB3104:Ao4</t>
+  </si>
+  <si>
+    <t>USB3104:Ao6</t>
+  </si>
+  <si>
+    <t>USB1808:Ai1</t>
+  </si>
+  <si>
+    <t>USB1808:Ai2</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>DAC1_4</t>
+  </si>
+  <si>
+    <t>DAC1_5</t>
+  </si>
+  <si>
+    <t>DAC1_6</t>
+  </si>
+  <si>
+    <t>DAC2_1</t>
+  </si>
+  <si>
+    <t>DAC2_2</t>
+  </si>
+  <si>
+    <t>DAC2_3</t>
+  </si>
+  <si>
+    <t>DAC2_4</t>
+  </si>
+  <si>
+    <t>DAC2_5</t>
+  </si>
+  <si>
+    <t>DAC2_7</t>
+  </si>
+  <si>
+    <t>US_IllumOnOff</t>
+  </si>
+  <si>
+    <t>DS_IllumOnOff</t>
+  </si>
+  <si>
+    <t>Unidig1Bo0</t>
+  </si>
+  <si>
+    <t>Unidig1Bo1</t>
+  </si>
+  <si>
+    <t>Unidig1Bo2</t>
+  </si>
+  <si>
+    <t>Unidig1Bo4</t>
+  </si>
+  <si>
+    <t>Unidig1Bo5</t>
+  </si>
+  <si>
+    <t>Unidig1Bo6</t>
+  </si>
+  <si>
+    <t>Unidig1Bo7</t>
+  </si>
+  <si>
+    <t>Unidig1Bo8</t>
+  </si>
+  <si>
+    <t>Unidig1Bo10</t>
+  </si>
+  <si>
+    <t>Unidig1Bo11</t>
+  </si>
+  <si>
+    <t>Unidig1Bo12</t>
+  </si>
+  <si>
+    <t>Unidig1Bo13</t>
+  </si>
+  <si>
+    <t>Unidig1Bo14</t>
+  </si>
+  <si>
+    <t>Unidig1Bo20</t>
+  </si>
+  <si>
+    <t>Unidig1Bo22</t>
+  </si>
+  <si>
+    <t>ND_Filter</t>
+  </si>
+  <si>
+    <t>IR_Mirror</t>
+  </si>
+  <si>
+    <t>US_SpectShutter</t>
+  </si>
+  <si>
+    <t>Photodiode</t>
+  </si>
+  <si>
+    <t>DS_SpectShutter</t>
+  </si>
+  <si>
+    <t>TableShutter</t>
+  </si>
+  <si>
+    <t>US_SpectShutter_RBV</t>
+  </si>
+  <si>
+    <t>Photodiode_RBV</t>
+  </si>
+  <si>
+    <t>TableShutter_RBV</t>
+  </si>
+  <si>
+    <t>DS_SpectShutter_RBV</t>
+  </si>
+  <si>
+    <t>Unidig2Bo4</t>
+  </si>
+  <si>
+    <t>EDIO24_1:Bo5</t>
+  </si>
+  <si>
+    <t>Unidig2Bo10</t>
+  </si>
+  <si>
+    <t>EDIO24_1:Bo11</t>
+  </si>
+  <si>
+    <t>LaserShutter</t>
+  </si>
+  <si>
+    <t>XRDShutter</t>
+  </si>
+  <si>
+    <t>Black pneumatic box</t>
+  </si>
+  <si>
+    <t>US_IllumSplitter</t>
+  </si>
+  <si>
+    <t>DS_IllumSplitter</t>
+  </si>
+  <si>
+    <t>Unidig1Bo9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -619,438 +766,581 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
         <v>49</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>60</v>
       </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>62</v>
       </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>63</v>
       </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D50" t="s">
         <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/iocBoot/ioc13idd_linux/Industry Pack wiring.xlsx
+++ b/iocBoot/ioc13idd_linux/Industry Pack wiring.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\epics\support\CARS\iocBoot\ioc13idd_linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F0F621-C12F-4061-B7BD-7E5481CFD78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="855" windowWidth="27570" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14565" yWindow="1440" windowWidth="27570" windowHeight="14925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="143">
   <si>
     <t>Industry Pack Wiring in 13-ID-D</t>
   </si>
@@ -347,6 +346,12 @@
     <t>DS_IllumOnOff</t>
   </si>
   <si>
+    <t>US_Splitter</t>
+  </si>
+  <si>
+    <t>DS_Splitter</t>
+  </si>
+  <si>
     <t>Unidig1Bo0</t>
   </si>
   <si>
@@ -371,6 +376,9 @@
     <t>Unidig1Bo8</t>
   </si>
   <si>
+    <t>Unidig1Bxo9</t>
+  </si>
+  <si>
     <t>Unidig1Bo10</t>
   </si>
   <si>
@@ -443,19 +451,25 @@
     <t>Black pneumatic box</t>
   </si>
   <si>
-    <t>US_IllumSplitter</t>
-  </si>
-  <si>
-    <t>DS_IllumSplitter</t>
-  </si>
-  <si>
-    <t>Unidig1Bo9</t>
+    <t>USBCTR:C4In</t>
+  </si>
+  <si>
+    <t>USBCTR:C7In</t>
+  </si>
+  <si>
+    <t>USBCTR:C6In</t>
+  </si>
+  <si>
+    <t>USBCTR:C2In</t>
+  </si>
+  <si>
+    <t>USBCTR:C3In</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -766,11 +780,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +982,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
@@ -979,13 +993,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
@@ -996,13 +1010,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
         <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
@@ -1013,13 +1027,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
         <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
         <v>34</v>
@@ -1030,13 +1044,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
         <v>36</v>
@@ -1047,13 +1061,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
         <v>40</v>
@@ -1064,13 +1078,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
         <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
         <v>40</v>
@@ -1081,13 +1095,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
         <v>40</v>
@@ -1098,13 +1112,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
         <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>
@@ -1115,13 +1129,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
         <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
@@ -1132,13 +1146,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
         <v>40</v>
@@ -1149,13 +1163,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
         <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
         <v>40</v>
@@ -1166,13 +1180,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
         <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
         <v>40</v>
@@ -1183,7 +1197,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
         <v>39</v>
@@ -1194,7 +1208,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
         <v>81</v>
@@ -1214,7 +1228,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
         <v>82</v>
@@ -1234,30 +1248,30 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1272,6 +1286,9 @@
       <c r="A41" t="s">
         <v>58</v>
       </c>
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
       <c r="D41" t="s">
         <v>49</v>
       </c>
@@ -1280,6 +1297,9 @@
       <c r="A42" t="s">
         <v>59</v>
       </c>
+      <c r="B42" t="s">
+        <v>142</v>
+      </c>
       <c r="D42" t="s">
         <v>50</v>
       </c>
@@ -1288,6 +1308,9 @@
       <c r="A43" t="s">
         <v>60</v>
       </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
       <c r="D43" t="s">
         <v>51</v>
       </c>
@@ -1307,6 +1330,9 @@
       <c r="A45" t="s">
         <v>62</v>
       </c>
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
       <c r="D45" t="s">
         <v>52</v>
       </c>
@@ -1314,6 +1340,9 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>139</v>
       </c>
       <c r="D46" t="s">
         <v>53</v>
